--- a/测试用例Web.xlsx
+++ b/测试用例Web.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE47A2-B2E7-4C70-9BE1-A6D86924ED1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2896437-03CE-49DA-9D0A-E16BAD8628F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1775,7 +1775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2979,7 +2979,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>235</v>
       </c>

--- a/测试用例Web.xlsx
+++ b/测试用例Web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2896437-03CE-49DA-9D0A-E16BAD8628F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0122C-2779-4C59-B23B-DFB5F1EFCDE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口用例" sheetId="1" r:id="rId1"/>
@@ -1773,9 +1773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1784,7 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="39.25" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
     <col min="6" max="6" width="41.125" customWidth="1"/>
     <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -3288,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41863DF7-F631-4C70-9CF1-BA73F0F611DD}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/测试用例Web.xlsx
+++ b/测试用例Web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0122C-2779-4C59-B23B-DFB5F1EFCDE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD4C8B-50A4-4445-9AE2-FD64DC829E70}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口用例" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="410">
   <si>
     <t>测试内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,416 @@
   <si>
     <t>1、按成交时间倒序排列正确，字段显示正确
 2、状态正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全中心-实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全中心-列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实名认证状态：未认证、认证处理中、已认证（查看后，开放高级认证入口）、认证失败（点查看，弹出失败原因以及重新注册）。
+2、登陆密码 有重置按钮
+3、没有绑定手机，提示未绑定手机。绑定后提示解绑
+4、没有绑定邮箱，提示去绑定邮箱。绑定后提示解绑
+5、谷歌验证未绑定，提示绑定谷歌验证。绑定后提示解绑
+6、未设置资金密码，提示设置资金密码。已设置，显示重置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实名认证各个状态展示正确
+2、显示正确，可点击
+3、未绑定，显示绑定。已绑定，显示解绑
+4、未绑定，显示绑定。已绑定，显示解绑
+5、未绑定，显示绑定。已绑定，显示解绑
+6、未设置显示设置按钮。已设置显示重置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表状态校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填、非法字符等前端校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入正确的身份证和姓名
+2、输入一绑定的身份证和姓名
+3、正确的姓名，错误的身份证
+4、错误的姓名，正确的身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、认证通过
+2、不通过，提示身份证已被认证过
+3、认证不通过
+3、认证不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、姓名未输入
+2、身份证未输入
+3、姓名长度校验
+4、身份证格式长度校验 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提示输入姓名，不能提交
+2、提示身份证必填
+3、正确范围内可提交，不在范围内不可提交
+4、18位数字可提交；最后一位是x的18位数字可提交。其余不可提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face++流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败后，可再次认证。每日3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3次内 可再次认证，超过3次，必须第二天认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日认证失败3次后，第二日认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可继续认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非大陆用户认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传对应图片后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态为等候审核状态。页面数据正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片格式不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片没有上传完全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能提交审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示页面正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示失败原因。可重新发起认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证了身份证，有通过了非大陆用户认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户为高级认证，将不走face++流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此用户直接是高级认证，将不再显示发起高级认证按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊二级认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、未登录，提示登陆
+2、所有图片上传，进入客服审核
+3、客服审核通过，直接显示高级认证通过
+4、图片没完全上传，不能提交
+5、上传非图片格式的数据，不能上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-谷歌验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、开启邮箱验证码
+2、开启手机验证码
+3、手机和邮箱都开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安全校验弹出邮箱验证码
+2、安全校验弹出手机验证码
+3、安全校验弹出邮箱和手机验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机验证码和邮箱验证码正确
+2、手机或者邮箱验证码错误
+3、手机或者邮箱验证码为孔
+4、二次使用正确的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、能进入下一步（谷歌验证码绑定界面）
+2、不能进入下一步
+3、不能进入下一步
+4、验证码被销毁，不能验证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、谷歌验证码正确
+2、谷歌验证码错误
+3、谷歌验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、验证码都正确
+2、验证码错误
+3、验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解绑成功
+2、解绑失败
+3、不能提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、仅关闭登陆开关
+2、仅关闭提币开关
+3、2者都关闭或开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登陆时不需要谷歌验证。但提币时还是需要
+2、提币时不需要谷歌验证。但登陆时需要
+3、登陆和提币都不需要此验证，或者都需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上 相反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、如果绑定谷歌，出现谷歌验证。
+2、如果开启邮箱验证，出现邮箱验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绑定成功，默认都开启此验证
+2、绑定失败
+3、不能提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、手机验证码正确
+2、手机验证码错误，或者手机验证码为空
+3、绑定成功后 默认开启手机验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绑定成功
+2、绑定失败，或者不能被提交
+3、默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后对应操作校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录
+2、提币
+3、找回密码
+4、修改安全设置时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、需要手机验证
+2、需要手机验证
+3、需要手机验证
+4、需要手机验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭后对应操作校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不需要手机验证
+2、不需要手机验证
+3、不需要手机验证
+4、不需要手机验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-邮箱验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同手机、谷歌安全校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址和验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已绑定过的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、已绑定过的手机进行绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绑定失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、已绑定过的邮箱进行绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑24h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解绑后24小时内无法提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、24小时内不能提现，24小时后可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、邮箱地址格式正确&amp;验证码正确
+2、邮箱格式正确，但长度超过
+3、邮箱正确，验证码错误
+4、邮箱或者验证码为空
+5、绑定成功后，默认开启态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绑定成功
+2、前端对应提示正确
+3、前端提示验证码不正确
+4、不能进行提交
+5、……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启关闭同 手机 开启or关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,19 +1879,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1490,6 +1897,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1771,66 +2214,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="58" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="58" style="14" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="14" customWidth="1"/>
     <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G3">
@@ -1838,11 +2281,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="E4" t="s">
+      <c r="A4" s="10"/>
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G4">
@@ -1850,17 +2293,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3">
@@ -1868,11 +2311,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="E7" t="s">
+      <c r="A7" s="10"/>
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G7">
@@ -1880,11 +2323,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="E8" t="s">
+      <c r="A8" s="10"/>
+      <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G8">
@@ -1892,17 +2335,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="10"/>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G10">
@@ -1910,11 +2353,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="E11" t="s">
+      <c r="A11" s="10"/>
+      <c r="E11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G11">
@@ -1922,14 +2365,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="10"/>
       <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>102</v>
       </c>
       <c r="G12">
@@ -1937,11 +2380,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="E13" t="s">
+      <c r="A13" s="10"/>
+      <c r="E13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>91</v>
       </c>
       <c r="G13">
@@ -1949,32 +2392,32 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="10"/>
       <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="10"/>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G16">
@@ -1982,14 +2425,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="10"/>
       <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G17">
@@ -1997,14 +2440,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="10"/>
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G18">
@@ -2012,11 +2455,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="E19" t="s">
+      <c r="A19" s="10"/>
+      <c r="E19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G19">
@@ -2024,17 +2467,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="10"/>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G21">
@@ -2042,17 +2485,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="10"/>
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G23">
@@ -2060,11 +2503,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="E24" t="s">
+      <c r="A24" s="10"/>
+      <c r="E24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G24">
@@ -2072,11 +2515,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="E25" t="s">
+      <c r="A25" s="10"/>
+      <c r="E25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G25">
@@ -2084,17 +2527,17 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="10"/>
       <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G27">
@@ -2102,10 +2545,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
+      <c r="E28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G28">
@@ -2116,10 +2559,10 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G30">
@@ -2127,16 +2570,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G32">
@@ -2144,11 +2587,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="E33" t="s">
+      <c r="A33" s="11"/>
+      <c r="E33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G33">
@@ -2156,23 +2599,23 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="11"/>
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2182,93 +2625,93 @@
         <v>58</v>
       </c>
       <c r="D36"/>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="4"/>
       <c r="H36"/>
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="E38" s="7" t="s">
+      <c r="A38" s="11"/>
+      <c r="E38" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="E39" t="s">
+      <c r="A39" s="11"/>
+      <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="E40" t="s">
+      <c r="A40" s="11"/>
+      <c r="E40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="E41" t="s">
+      <c r="A41" s="11"/>
+      <c r="E41" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="E43" s="7" t="s">
+      <c r="A43" s="11"/>
+      <c r="E43" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="E44" t="s">
+      <c r="A44" s="11"/>
+      <c r="E44" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="E45" t="s">
+      <c r="A45" s="11"/>
+      <c r="E45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2276,42 +2719,42 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
+      <c r="E48" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
+      <c r="E49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+      <c r="E50" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
+      <c r="E51" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
+      <c r="E52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2319,34 +2762,34 @@
       <c r="C53" t="s">
         <v>95</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+      <c r="E54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
+      <c r="E55" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
+      <c r="E56" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G56">
@@ -2354,10 +2797,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
+      <c r="E57" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G57">
@@ -2365,15 +2808,15 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2385,10 +2828,10 @@
       <c r="D60" t="s">
         <v>120</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="14" t="s">
         <v>124</v>
       </c>
       <c r="G60">
@@ -2402,7 +2845,7 @@
       <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="14" t="s">
         <v>125</v>
       </c>
       <c r="G61">
@@ -2413,10 +2856,10 @@
       <c r="D62" t="s">
         <v>126</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="14" t="s">
         <v>128</v>
       </c>
       <c r="G62">
@@ -2424,10 +2867,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E63" t="s">
+      <c r="E63" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="14" t="s">
         <v>130</v>
       </c>
       <c r="G63">
@@ -2438,10 +2881,10 @@
       <c r="D64" t="s">
         <v>131</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G64">
@@ -2452,7 +2895,7 @@
       <c r="C65" t="s">
         <v>117</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="14" t="s">
         <v>118</v>
       </c>
       <c r="G65">
@@ -2460,18 +2903,18 @@
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2479,38 +2922,38 @@
       <c r="C68" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D69" s="11"/>
-      <c r="E69" t="s">
+      <c r="D69" s="8"/>
+      <c r="E69" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D70" s="11"/>
-      <c r="E70" t="s">
+      <c r="D70" s="8"/>
+      <c r="E70" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D71" s="11"/>
-      <c r="E71" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2518,23 +2961,23 @@
       <c r="C73" t="s">
         <v>135</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
+      <c r="E74" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
+      <c r="E75" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="14" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2542,142 +2985,142 @@
       <c r="C77" t="s">
         <v>137</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
+      <c r="E78" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
+      <c r="E79" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
+      <c r="E80" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="23" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="10"/>
+      <c r="B82" s="7"/>
       <c r="D82" t="s">
         <v>180</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="10"/>
-      <c r="E83" s="9" t="s">
+      <c r="B83" s="7"/>
+      <c r="E83" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="10"/>
+      <c r="B84" s="7"/>
       <c r="D84" t="s">
         <v>95</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="10"/>
-      <c r="E85" s="9"/>
+      <c r="B85" s="7"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>138</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
+      <c r="E87" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
+      <c r="E88" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+      <c r="E89" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
+      <c r="E90" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E91" t="s">
+      <c r="E91" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E92" t="s">
+      <c r="E92" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E93" t="s">
+      <c r="E93" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E94" t="s">
+      <c r="E94" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2685,26 +3128,26 @@
       <c r="D95" t="s">
         <v>145</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E96" t="s">
+      <c r="E96" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
+      <c r="E97" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2712,35 +3155,36 @@
       <c r="A99" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="16" t="s">
         <v>193</v>
       </c>
+      <c r="F99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -2749,34 +3193,34 @@
       <c r="D107" t="s">
         <v>107</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
+      <c r="E108" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E109" t="s">
+      <c r="E109" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
+      <c r="E110" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="14" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2784,18 +3228,18 @@
       <c r="D111" t="s">
         <v>225</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E112" t="s">
+      <c r="E112" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2803,18 +3247,18 @@
       <c r="D113" t="s">
         <v>246</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E114" t="s">
+      <c r="E114" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="14" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2822,18 +3266,18 @@
       <c r="D116" t="s">
         <v>218</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E117" t="s">
+      <c r="E117" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="14" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2841,10 +3285,10 @@
       <c r="D118" t="s">
         <v>219</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="14" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2852,10 +3296,10 @@
       <c r="D119" t="s">
         <v>243</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2863,26 +3307,26 @@
       <c r="A121" t="s">
         <v>210</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E122" t="s">
+      <c r="E122" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="14" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E123" t="s">
+      <c r="E123" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2890,18 +3334,18 @@
       <c r="D124" t="s">
         <v>107</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E125" t="s">
+      <c r="E125" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2912,10 +3356,10 @@
       <c r="D126" t="s">
         <v>221</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="14" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2923,7 +3367,7 @@
       <c r="B127" t="s">
         <v>260</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2931,10 +3375,10 @@
       <c r="D128" t="s">
         <v>234</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="14" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2942,10 +3386,10 @@
       <c r="D129" t="s">
         <v>243</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="14" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2961,10 +3405,10 @@
       <c r="D131" t="s">
         <v>253</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="14" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2972,14 +3416,14 @@
       <c r="D132" t="s">
         <v>256</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>235</v>
       </c>
@@ -2989,23 +3433,23 @@
       <c r="C136" t="s">
         <v>250</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E137" t="s">
+      <c r="E137" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="14" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E138" t="s">
+      <c r="E138" s="14" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3018,12 +3462,12 @@
       <c r="C140" t="s">
         <v>251</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E141" t="s">
+      <c r="E141" s="14" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3031,18 +3475,18 @@
       <c r="A143" t="s">
         <v>264</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="14" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E144" t="s">
+      <c r="E144" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="14" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3050,18 +3494,18 @@
       <c r="A146" t="s">
         <v>269</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E147" t="s">
+      <c r="E147" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="14" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3072,10 +3516,10 @@
       <c r="C149" t="s">
         <v>274</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="14" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3083,7 +3527,7 @@
       <c r="C150" t="s">
         <v>277</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="12" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3091,7 +3535,7 @@
       <c r="C151" t="s">
         <v>279</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="14" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3099,15 +3543,15 @@
       <c r="C152" t="s">
         <v>281</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>283</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3115,7 +3559,7 @@
       <c r="C154" t="s">
         <v>284</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="12" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3126,26 +3570,26 @@
       <c r="C155" t="s">
         <v>289</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>292</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>294</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3153,18 +3597,18 @@
       <c r="A158" t="s">
         <v>295</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>299</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="12" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3172,39 +3616,39 @@
       <c r="A160" t="s">
         <v>298</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="12" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3212,7 +3656,7 @@
       <c r="A165" t="s">
         <v>309</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="12" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3220,10 +3664,10 @@
       <c r="A166" t="s">
         <v>311</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="12" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3231,10 +3675,10 @@
       <c r="A167" t="s">
         <v>313</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3242,10 +3686,10 @@
       <c r="A169" t="s">
         <v>317</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="12" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3253,10 +3697,10 @@
       <c r="A170" t="s">
         <v>320</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="12" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3264,11 +3708,383 @@
       <c r="A171" t="s">
         <v>323</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="12" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" t="s">
+        <v>329</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>325</v>
+      </c>
+      <c r="C174" t="s">
+        <v>330</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>331</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>336</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E177" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E178" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E179" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>353</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>346</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E182" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E183" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>354</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>356</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>358</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>359</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>363</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>366</v>
+      </c>
+      <c r="C190" t="s">
+        <v>367</v>
+      </c>
+      <c r="D190" t="s">
+        <v>368</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>371</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>376</v>
+      </c>
+      <c r="D193" t="s">
+        <v>368</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>371</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>402</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>380</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>383</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>365</v>
+      </c>
+      <c r="C199" t="s">
+        <v>367</v>
+      </c>
+      <c r="D199" t="s">
+        <v>368</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>371</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>386</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>398</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203" t="s">
+        <v>390</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>380</v>
+      </c>
+      <c r="D204" t="s">
+        <v>393</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>395</v>
+      </c>
+      <c r="C205" t="s">
+        <v>367</v>
+      </c>
+      <c r="D205" t="s">
+        <v>368</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>397</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>398</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>383</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>408</v>
+      </c>
+      <c r="C211" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +4104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41863DF7-F631-4C70-9CF1-BA73F0F611DD}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/测试用例Web.xlsx
+++ b/测试用例Web.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD4C8B-50A4-4445-9AE2-FD64DC829E70}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91709A-4146-4AB5-9CD7-F5D0112EC61E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="448">
   <si>
     <t>测试内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提现（提现流程待确定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、如果没有配置提币地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,34 +592,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、首次提现，提示设置资金密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3、没有实名认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、如果配置资金密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提现时，需要输入资金密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提现资金&gt;账户金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能提出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每种币，都提一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,22 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单日最高提现金额为3档。累计金额为3档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可提现金额为2档（需运营那边给数据）。累计提币金额为2档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入提现金额为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每种货币都能正确到帐，数据正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,14 +668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怎么确认是否有多少个网络才能到账？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每种货币，网络确认数不一样的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,30 +724,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可提现的金额为1档。累计提币金额为1档。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出对应提示，去身份认证还是 修改提币金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-1、没有实名认证，提现金额超过单日上限、或者累计上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1、实名1级认证，提现金额超过单日上限、或者累计上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出对应提示，去身二级份认证还是 修改提币金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-1、实名认证为2级，提现金额超过单日上限、或者累计上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出对应提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,14 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C2C充值提现记录能正确查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟货币充值提现，都能正确展示状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击详情，详情数据显示正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,14 +877,6 @@
   </si>
   <si>
     <t>可以买入成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有设置谷歌验证或者资金密码（二选一）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示 开启谷歌验证或资金密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1748,14 +1668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、解绑后24小时内无法提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、24小时内不能提现，24小时后可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、邮箱地址格式正确&amp;验证码正确
 2、邮箱格式正确，但长度超过
 3、邮箱正确，验证码错误
@@ -1776,11 +1688,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>安全设置-资金密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置</t>
+    <t>1、安全验证校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安全验证校验通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金密码6位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、设置成功
+2、不能设置成功
+3、不能设置成功
+4、不能设置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、设置成功后，资金密码默认为开启态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、资金密码默认为开启态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同设置资金密码 测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入重置后的密码，通过
+2、输入错误的密码，不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新设置的资金密码，能正确通过。输入错误的密码不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、输入资金密码6位数字
+2、输入5位数字或者7为数字
+3、资金密码包含字符
+4、资金密码为空
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响点校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭后数据库状态正确，列表状态展示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后，数据库状态正确，列表状态展示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-24h无法提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24小时内有以下操作
+1、重置资金密码
+2、重置登陆密码
+3、谷歌验证码解绑
+4、手机验证关闭
+5、邮箱验证关闭
+6、谷歌验证码关闭
+6、资金密码关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能提币</t>
+  </si>
+  <si>
+    <t>不能提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上操作超过24H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能正确提币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每种货币，X网络确认到账，Y网络确认可提币、最小充值数Z，此XYZ变量跟货币相关，每种不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么确认是否有多少个网络才能到账？？？
+校验每种货币最小充值数、网络确认到账数、网络确认可提币数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、用户首次充值，没有设置谷歌验证或者资金密码（二选一）
+2、点击继续充值，不在提示
+3、点击去开启，没有充值
+4、点击去开启后，没有开启，充值了
+5、点击去开启，开启了任意一项，没有充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、提示 开启谷歌验证或资金密码
+2、以后都不会有此提示
+3、如果没有充值下次打开还是有提示
+4、下次不再提示
+5、不再有此提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、没有设置资金面，提示设置资金密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提币（提币流程待确定）</t>
+  </si>
+  <si>
+    <t>可提币的金额为1档。累计提币金额为1档。</t>
+  </si>
+  <si>
+    <t>3-1、没有实名认证，提币金额超过单日上限、或者累计上限</t>
+  </si>
+  <si>
+    <t>可提币金额为2档（需运营那边给数据）。累计提币金额为2档</t>
+  </si>
+  <si>
+    <t>4-1、实名1级认证，提币金额超过单日上限、或者累计上限</t>
+  </si>
+  <si>
+    <t>单日最高提币金额为3档。累计金额为3档</t>
+  </si>
+  <si>
+    <t>5-1、实名认证为2级，提币金额超过单日上限、或者累计上限</t>
+  </si>
+  <si>
+    <t>提币时，需要输入资金密码</t>
+  </si>
+  <si>
+    <t>提币资金&gt;账户金额</t>
+  </si>
+  <si>
+    <t>输入提币金额为0</t>
+  </si>
+  <si>
+    <t>C2C充值提币记录能正确查询</t>
+  </si>
+  <si>
+    <t>虚拟货币充值提币，都能正确展示状态</t>
+  </si>
+  <si>
+    <t>1、解绑后24小时内无法提币</t>
+  </si>
+  <si>
+    <t>1、24小时内不能提币，24小时后可以</t>
+  </si>
+  <si>
+    <t>设置成功后，交易或提币测试资金密码</t>
+  </si>
+  <si>
+    <t>重置后，测试交易或提币</t>
+  </si>
+  <si>
+    <t>关闭后。交易 or提币不再出现资金密码</t>
+  </si>
+  <si>
+    <t>开启后，交易or提币必须要输入资金密码才能 继续操作</t>
+  </si>
+  <si>
+    <t>4、资金密码开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24h安全设置无法提币（详见后面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击交易，出现支持该货币支持的交易对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、跳转正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能提出，提示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币币交易-买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老用户资金密码可能为多位的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入多位，字符、字母 等正确的资金密码，密码验证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老用户资金密码兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小提币金额校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲币最小金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充币最小金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +2036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1892,12 +2049,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1934,6 +2085,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2214,11 +2378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2227,8 +2391,8 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="58" style="14" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="58" style="12" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="6.375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
@@ -2247,10 +2411,10 @@
       <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -2264,16 +2428,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G3">
@@ -2281,11 +2445,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="E4" s="14" t="s">
+      <c r="A4" s="22"/>
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G4">
@@ -2293,17 +2457,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3">
@@ -2311,11 +2475,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G7">
@@ -2323,11 +2487,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="E8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G8">
@@ -2335,17 +2499,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="22"/>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G10">
@@ -2353,11 +2517,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="E11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G11">
@@ -2365,14 +2529,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="22"/>
       <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G12">
@@ -2380,11 +2544,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="E13" s="14" t="s">
+      <c r="A13" s="22"/>
+      <c r="E13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G13">
@@ -2392,32 +2556,32 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="22"/>
       <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="22"/>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G16">
@@ -2425,14 +2589,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="22"/>
       <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G17">
@@ -2440,14 +2604,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="22"/>
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G18">
@@ -2455,11 +2619,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="E19" s="14" t="s">
+      <c r="A19" s="22"/>
+      <c r="E19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G19">
@@ -2467,17 +2631,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="22"/>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G21">
@@ -2485,17 +2649,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="22"/>
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G23">
@@ -2503,11 +2667,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="E24" s="14" t="s">
+      <c r="A24" s="22"/>
+      <c r="E24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G24">
@@ -2515,11 +2679,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="E25" s="14" t="s">
+      <c r="A25" s="22"/>
+      <c r="E25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G25">
@@ -2527,17 +2691,17 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="22"/>
       <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G27">
@@ -2545,10 +2709,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G28">
@@ -2559,10 +2723,10 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G30">
@@ -2570,16 +2734,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>55</v>
       </c>
       <c r="G32">
@@ -2587,11 +2751,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="E33" s="14" t="s">
+      <c r="A33" s="23"/>
+      <c r="E33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G33">
@@ -2599,23 +2763,23 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="23"/>
       <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="114" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="23"/>
       <c r="C35" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2625,10 +2789,10 @@
         <v>58</v>
       </c>
       <c r="D36"/>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G36" s="4"/>
@@ -2636,82 +2800,82 @@
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="23" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="E38" s="22" t="s">
+      <c r="A38" s="23"/>
+      <c r="E38" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="E39" s="14" t="s">
+      <c r="A39" s="23"/>
+      <c r="E39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="E40" s="14" t="s">
+      <c r="A40" s="23"/>
+      <c r="E40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="E41" s="14" t="s">
+      <c r="A41" s="23"/>
+      <c r="E41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="E43" s="22" t="s">
+      <c r="A43" s="23"/>
+      <c r="E43" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="E44" s="14" t="s">
+      <c r="A44" s="23"/>
+      <c r="E44" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="E45" s="14" t="s">
+      <c r="A45" s="23"/>
+      <c r="E45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2719,42 +2883,42 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2762,34 +2926,34 @@
       <c r="C53" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="12" t="s">
         <v>80</v>
       </c>
       <c r="G56">
@@ -2797,10 +2961,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="12" t="s">
         <v>80</v>
       </c>
       <c r="G57">
@@ -2812,8 +2976,8 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -2828,10 +2992,10 @@
       <c r="D60" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G60">
@@ -2845,7 +3009,7 @@
       <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="12" t="s">
         <v>125</v>
       </c>
       <c r="G61">
@@ -2856,10 +3020,10 @@
       <c r="D62" t="s">
         <v>126</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="12" t="s">
         <v>128</v>
       </c>
       <c r="G62">
@@ -2867,10 +3031,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>130</v>
       </c>
       <c r="G63">
@@ -2881,10 +3045,10 @@
       <c r="D64" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>133</v>
       </c>
       <c r="G64">
@@ -2895,7 +3059,7 @@
       <c r="C65" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G65">
@@ -2904,1187 +3068,1345 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D66" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D67" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>165</v>
+        <v>153</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>173</v>
+      <c r="E68" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D69" s="8"/>
-      <c r="E69" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>175</v>
+      <c r="E69" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
-      <c r="E70" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>177</v>
+      <c r="E70" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D71" s="8"/>
-      <c r="E71" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>179</v>
+      <c r="E71" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>157</v>
+      <c r="E73" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>159</v>
+      <c r="E74" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>161</v>
+      <c r="E75" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E79" s="14" t="s">
-        <v>167</v>
+      <c r="E79" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E80" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>169</v>
+        <v>411</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
       <c r="D82" t="s">
-        <v>180</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="7"/>
-      <c r="E83" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B84" s="7"/>
       <c r="D84" t="s">
         <v>95</v>
       </c>
-      <c r="E84" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>231</v>
+      <c r="E84" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="7"/>
-      <c r="E85" s="20"/>
+      <c r="D85" t="s">
+        <v>447</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="F86" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F86" s="14" t="s">
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>185</v>
+      <c r="F88" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>186</v>
+      <c r="E89" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>153</v>
+      <c r="E90" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>189</v>
+      <c r="E91" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E92" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>152</v>
+      <c r="E92" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E93" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>191</v>
+      <c r="E93" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E94" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>144</v>
+      <c r="E94" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E96" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>149</v>
+      <c r="E96" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E97" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F99" s="16"/>
+      <c r="E97" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>444</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="26" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E100" s="16" t="s">
-        <v>194</v>
+      <c r="C100" s="26"/>
+      <c r="D100" t="s">
+        <v>436</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E101" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E102" s="16" t="s">
-        <v>196</v>
+      <c r="C101" s="26"/>
+    </row>
+    <row r="102" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E103" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E104" s="14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>197</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E105" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E108" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E109" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F109" s="14" t="s">
+      <c r="E110" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E110" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>204</v>
+      <c r="F110" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>227</v>
+      <c r="E111" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E112" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>229</v>
+      <c r="E112" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D113" t="s">
-        <v>246</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>19</v>
+      <c r="E113" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E114" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>249</v>
+      <c r="D114" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E115" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>218</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>206</v>
+        <v>226</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E117" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
-        <v>219</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>209</v>
+      <c r="E117" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>243</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>244</v>
+        <v>200</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E120" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>210</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F121" s="14" t="s">
+      <c r="D121" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E125" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E126" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E128" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F131" s="12" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E122" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E123" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D124" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E125" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>259</v>
-      </c>
-      <c r="D126" t="s">
-        <v>221</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>260</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D128" t="s">
-        <v>234</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>252</v>
-      </c>
-      <c r="D131" t="s">
-        <v>253</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>256</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+        <v>223</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F134" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C136" t="s">
-        <v>250</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F136" s="14" t="s">
+      <c r="F135" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E137" s="14" t="s">
+    <row r="139" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E140" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E141" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E144" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E138" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>251</v>
-      </c>
-      <c r="E140" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E141" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>264</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E144" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>269</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>271</v>
+        <v>244</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E147" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>273</v>
+      <c r="E147" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>249</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E150" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>257</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>259</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>261</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>263</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>264</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" t="s">
+        <v>269</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>272</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>274</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>275</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>278</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E164" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E165" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E166" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F166" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C149" t="s">
-        <v>274</v>
-      </c>
-      <c r="E149" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>277</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>279</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>281</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
-        <v>283</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>284</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E167" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>289</v>
       </c>
-      <c r="E155" s="12" t="s">
+      <c r="E168" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F155" s="12" t="s">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" t="s">
+        <v>443</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
+      <c r="E170" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E156" s="12" t="s">
+      <c r="F170" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>294</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="E171" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E158" s="12" t="s">
+      <c r="F171" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>297</v>
       </c>
-      <c r="F158" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="E173" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F173" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E159" s="12" t="s">
+    </row>
+    <row r="174" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="E174" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="E175" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E160" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E161" s="12" t="s">
+      <c r="F175" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F161" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E162" s="12" t="s">
+    </row>
+    <row r="177" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>306</v>
+      </c>
+      <c r="D177" t="s">
+        <v>309</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>305</v>
       </c>
-      <c r="F162" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E163" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F163" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E164" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>309</v>
-      </c>
-      <c r="E165" s="12" t="s">
+      <c r="C178" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="E178" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
         <v>311</v>
       </c>
-      <c r="E166" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F166" s="12" t="s">
+      <c r="E179" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>313</v>
-      </c>
-      <c r="E167" s="12" t="s">
+      <c r="F179" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F167" s="12" t="s">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="E180" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E169" s="12" t="s">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E181" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F169" s="12" t="s">
+      <c r="F181" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E182" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="F182" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F170" s="12" t="s">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E183" s="12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="F183" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>326</v>
-      </c>
-      <c r="D173" t="s">
-        <v>329</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>325</v>
-      </c>
-      <c r="C174" t="s">
-        <v>330</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="F174" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
-        <v>331</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F175" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C176" t="s">
-        <v>336</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E177" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="F177" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E178" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E179" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
-        <v>353</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C181" t="s">
-        <v>346</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E182" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E183" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F183" s="14" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
+        <v>333</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>326</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E186" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E187" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>334</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>336</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>338</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>339</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>343</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>346</v>
+      </c>
+      <c r="C194" t="s">
+        <v>347</v>
+      </c>
+      <c r="D194" t="s">
+        <v>348</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>351</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
         <v>354</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E196" s="10" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D185" t="s">
-        <v>356</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>358</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
-        <v>359</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="F187" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
-        <v>363</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>366</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="F196" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D190" t="s">
-        <v>368</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
-        <v>371</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="F191" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D192" t="s">
-        <v>374</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C193" t="s">
-        <v>376</v>
-      </c>
-      <c r="D193" t="s">
-        <v>368</v>
-      </c>
-      <c r="E193" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D194" t="s">
-        <v>371</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C195" t="s">
-        <v>402</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C196" t="s">
-        <v>380</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="F196" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
+        <v>356</v>
+      </c>
+      <c r="D197" t="s">
+        <v>348</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>351</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>360</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>363</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203" t="s">
+        <v>347</v>
+      </c>
+      <c r="D203" t="s">
+        <v>348</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>351</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>366</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>378</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>363</v>
+      </c>
+      <c r="D207" t="s">
+        <v>370</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>360</v>
+      </c>
+      <c r="D208" t="s">
+        <v>373</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F208" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" t="s">
+        <v>347</v>
+      </c>
+      <c r="D209" t="s">
+        <v>348</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>377</v>
+      </c>
+      <c r="E210" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="E197" s="14" t="s">
+      <c r="F210" s="10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>365</v>
-      </c>
-      <c r="C199" t="s">
-        <v>367</v>
-      </c>
-      <c r="D199" t="s">
-        <v>368</v>
-      </c>
-      <c r="E199" s="12" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
+        <v>378</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>363</v>
+      </c>
+      <c r="E212" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D200" t="s">
-        <v>371</v>
-      </c>
-      <c r="E200" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D201" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>387</v>
+      </c>
+      <c r="C215" t="s">
         <v>386</v>
       </c>
-      <c r="E201" s="12" t="s">
+      <c r="E215" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F201" s="12" t="s">
+      <c r="F215" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D202" t="s">
+    <row r="216" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>390</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>392</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>401</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>395</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E220" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>401</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
         <v>398</v>
       </c>
-      <c r="E202" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F202" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
-        <v>383</v>
-      </c>
-      <c r="D203" t="s">
-        <v>390</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F203" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
-        <v>380</v>
-      </c>
-      <c r="D204" t="s">
-        <v>393</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>395</v>
-      </c>
-      <c r="C205" t="s">
-        <v>367</v>
-      </c>
-      <c r="D205" t="s">
-        <v>368</v>
-      </c>
-      <c r="E205" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D206" t="s">
-        <v>397</v>
-      </c>
-      <c r="E206" s="12" t="s">
+      <c r="E222" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E223" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>403</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E225" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>405</v>
       </c>
-      <c r="F206" s="12" t="s">
+      <c r="E226" s="10" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D207" t="s">
-        <v>398</v>
-      </c>
-      <c r="E207" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F207" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
-        <v>383</v>
-      </c>
-      <c r="E208" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
+      <c r="F226" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E227" s="12" t="s">
         <v>409</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
